--- a/Stat reports/Reports/Templates/4-ис (инвестиции).xlsx
+++ b/Stat reports/Reports/Templates/4-ис (инвестиции).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Statistic report\Stat reports\Stat reports\Reports\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D4C46B-9139-47B6-A6EC-FC304EEA23A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC94F1-EF04-4C4A-8588-46F82CA90432}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="320">
   <si>
     <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
   </si>
@@ -176,18 +176,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>215</t>
   </si>
   <si>
     <t>Из строки 205 - средства внешних государственных займов</t>
   </si>
   <si>
-    <t>546</t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -254,19 +248,10 @@
     <t>заемных средств других организаций</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
     <t>203</t>
   </si>
   <si>
     <t>в том числе за счет: собственных средств организаций</t>
-  </si>
-  <si>
-    <t>699</t>
   </si>
   <si>
     <t>202</t>
@@ -363,9 +348,6 @@
     <t>прочие работы и затраты</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>224</t>
   </si>
   <si>
@@ -397,9 +379,6 @@
   </si>
   <si>
     <t>Вложения в нематериальные активы</t>
-  </si>
-  <si>
-    <t>140</t>
   </si>
   <si>
     <t>295</t>
@@ -1202,9 +1181,6 @@
     <t>Бернацкая Инна Николаевна zamsu123@mail.ru 261143</t>
   </si>
   <si>
-    <t>10.01.2025</t>
-  </si>
-  <si>
     <t>(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
@@ -1213,7 +1189,7 @@
 статистической отчетности)</t>
   </si>
   <si>
-    <t xml:space="preserve">Отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за  </t>
+    <t>Отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
   </si>
 </sst>
 </file>
@@ -1825,14 +1801,14 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2151,7 +2127,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,7 +2200,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2483,7 +2459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E35" sqref="D9:E35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2496,7 +2474,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2505,7 +2483,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2514,7 +2492,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2537,7 +2515,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,462 +2537,354 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3032,7 +2902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="D9:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3045,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3054,7 +2926,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3063,7 +2935,7 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3083,10 +2955,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,71 +2980,55 @@
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3190,7 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C10:L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3210,7 +3068,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3226,7 +3084,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3242,7 +3100,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3266,14 +3124,14 @@
         <v>35</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
@@ -3288,34 +3146,34 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3335,216 +3193,116 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3567,7 +3325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="D10:F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3581,7 +3341,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3591,7 +3351,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3601,7 +3361,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3622,10 +3382,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F7" s="61"/>
     </row>
@@ -3641,10 +3401,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,103 +3429,73 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3788,7 +3518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H26" sqref="B20:J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3806,7 +3538,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3820,7 +3552,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -3834,7 +3566,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -3856,20 +3588,20 @@
         <v>35</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -3878,25 +3610,25 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J8" s="65" t="s">
         <v>24</v>
@@ -3919,162 +3651,98 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D16" s="17"/>
+      <c r="F16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="F16" s="66" t="s">
-        <v>24</v>
-      </c>
       <c r="G16" s="17"/>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="67" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="17"/>
@@ -4090,26 +3758,24 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="C18" s="67" t="s">
-        <v>320</v>
+      <c r="C18" s="68" t="s">
+        <v>313</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="F18" s="67" t="s">
-        <v>321</v>
+      <c r="F18" s="68" t="s">
+        <v>314</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="I18" s="67" t="s">
-        <v>322</v>
+      <c r="I18" s="68" t="s">
+        <v>315</v>
       </c>
       <c r="J18" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="E20" s="66" t="s">
-        <v>324</v>
-      </c>
+      <c r="A20" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="67"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -4126,11 +3792,11 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>326</v>
+      <c r="A22" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>318</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -4180,7 +3846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="D10:F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4290,15 +3958,9 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4321,7 +3983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="C9:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4333,7 +3997,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4341,7 +4005,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4349,10 +4013,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -4364,10 +4028,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4386,199 +4050,143 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4595,7 +4203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="D9:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4608,7 +4218,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -4617,7 +4227,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -4626,12 +4236,12 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="17"/>
     </row>
@@ -4646,10 +4256,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,241 +4281,185 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4923,7 +4477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C9:C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4934,21 +4490,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>40</v>
@@ -4963,7 +4519,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4979,25 +4535,21 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5014,7 +4566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="C10:H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5030,7 +4584,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5042,7 +4596,7 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5054,7 +4608,7 @@
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5062,32 +4616,32 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -5099,10 +4653,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>24</v>
@@ -5131,92 +4685,56 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5241,7 +4759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5254,7 +4774,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5264,7 +4784,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5274,7 +4794,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5292,14 +4812,14 @@
         <v>35</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5311,10 +4831,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>24</v>
@@ -5337,348 +4857,212 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5701,7 +5085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="C9:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5713,7 +5099,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5721,7 +5107,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5729,10 +5115,10 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -5744,10 +5130,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,59 +5152,43 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5835,7 +5205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="D10:F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5849,7 +5221,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5859,7 +5231,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5869,7 +5241,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -5893,7 +5265,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F7" s="47"/>
     </row>
@@ -5909,10 +5281,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5937,83 +5309,59 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Stat reports/Reports/Templates/4-ис (инвестиции).xlsx
+++ b/Stat reports/Reports/Templates/4-ис (инвестиции).xlsx
@@ -3,14 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Статотчетность_дирекция\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC94F1-EF04-4C4A-8588-46F82CA90432}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21375" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21375" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -28,32 +22,32 @@
     <sheet name="Раздел 12" sheetId="13" r:id="rId13"/>
     <sheet name="Раздел 13" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="320">
   <si>
-    <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
-  </si>
-  <si>
-    <t>КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
-  </si>
-  <si>
-    <t>Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
-  </si>
-  <si>
-    <t>Представляют респонденты</t>
-  </si>
-  <si>
-    <t>Срок представления</t>
-  </si>
-  <si>
-    <t>4-ис (инвестиции)</t>
-  </si>
-  <si>
-    <t>Юридические лица (кроме перечисленных в Указаниях по
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНЦИАЛЬНОСТЬ ГАРАНТИРУЕТСЯ ПОЛУЧАТЕЛЕМ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представление искаженных данных государственной статистической отчетности, несвоевременное представление или непредставление такой отчетности влекут применение мер административной или уголовной ответственности в порядке, установленном законодательством Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представляют респонденты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок представления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-ис (инвестиции)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юридические лица (кроме перечисленных в Указаниях по
 заполнению настоящей формы), обособленные подразделения
 юридических лиц, имеющие отдельный баланс, осуществляющие
 инвестиционную деятельность по вложению инвестиций в
@@ -67,107 +61,107 @@
 управление области</t>
   </si>
   <si>
-    <t>7-го числа после отчетного периода, за
+    <t xml:space="preserve">7-го числа после отчетного периода, за
 январь-декабрь 10 января</t>
   </si>
   <si>
-    <t>Код формы
+    <t xml:space="preserve">Код формы
 по ОКУД</t>
   </si>
   <si>
-    <t>0628002</t>
-  </si>
-  <si>
-    <t>Квартальная</t>
-  </si>
-  <si>
-    <t>Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
+    <t xml:space="preserve">0628002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полное наименование юридического лица: ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "СТРОЙТРЕСТ N 3 ОРДЕНА
 ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 123
+    <t xml:space="preserve">Полное наименование обособленного подразделения юридического лица: СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ N 123
 ОТКРЫТОГО АКЦИОНЕРНОГО ОБЩЕСТВА "СТРОЙТРЕСТ N 3 ОРДЕНА ОКТЯБРЬСКОЙ РЕВОЛЮЦИИ"</t>
   </si>
   <si>
-    <t>Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
-  </si>
-  <si>
-    <t>Электронный адрес: su123@str3.by</t>
-  </si>
-  <si>
-    <t>Регистрационный номер в статистическом регистре (ОКПО)</t>
-  </si>
-  <si>
-    <t>Учетный номер плательщика (УНП)</t>
-  </si>
-  <si>
-    <t>Территория нахождения объекта инвестиционной деятельности (район, город обл.подчинения, район г.Минска)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>012774946006</t>
-  </si>
-  <si>
-    <t>600142627</t>
-  </si>
-  <si>
-    <t>Солигорский район</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Мощность объектов:</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>реконструкции,
+    <t xml:space="preserve">Местоположение: 223710, МИНСКАЯ ОБЛАСТЬ, Солигорский, Солигорск, УЛ. КОЗЛОВА, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электронный адрес: su123@str3.by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регистрационный номер в статистическом регистре (ОКПО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учетный номер плательщика (УНП)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Территория нахождения объекта инвестиционной деятельности (район, город обл.подчинения, район г.Минска)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">012774946006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600142627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солигорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность объектов:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реконструкции,
 модернизации</t>
   </si>
   <si>
-    <t>возведения</t>
-  </si>
-  <si>
-    <t>Из них в результате</t>
-  </si>
-  <si>
-    <t>Введено
+    <t xml:space="preserve">возведения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из них в результате</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено
 в
 эксплуатацию</t>
   </si>
   <si>
-    <t>Ед.измерения</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Наименование показателя</t>
-  </si>
-  <si>
-    <t>Раздел 1</t>
-  </si>
-  <si>
-    <t>Мощность введенных в эксплуатацию объектов</t>
+    <t xml:space="preserve">Ед.измерения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование показателя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность введенных в эксплуатацию объектов</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 1  </t>
@@ -176,104 +170,104 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>Из строки 205 - средства внешних государственных займов</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>прочих источников</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>средств населения</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>кредитов по иностранным кредитным линиям</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>кредитов (займов) иностранных банков</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>из них: льготных кредитов</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>кредитов (займов) банков</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>иностранных инвестиций (без кредитов (займов) иностранных банков)</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>средств внебюджетных фондов</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>средств местных бюджетов</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>средств республиканского бюджета</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>заемных средств других организаций</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>в том числе за счет: собственных средств организаций</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Использовано инвестиций в основной капитал - всего (сумма строк с 203 по 209,
+    <t xml:space="preserve">215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 205 - средства внешних государственных займов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочих источников</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств населения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов по иностранным кредитным линиям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов (займов) иностранных банков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: льготных кредитов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов (займов) банков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">иностранных инвестиций (без кредитов (займов) иностранных банков)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств внебюджетных фондов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств местных бюджетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">средств республиканского бюджета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заемных средств других организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе за счет: собственных средств организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовано инвестиций в основной капитал - всего (сумма строк с 203 по 209,
 213, 214)</t>
   </si>
   <si>
-    <t>Раздел 2</t>
-  </si>
-  <si>
-    <t>Основные средства и инвестиции в основной капитал</t>
-  </si>
-  <si>
-    <t>Таблица 2 Инвестиции в основной капитал по источникам финансирования</t>
-  </si>
-  <si>
-    <t>тысяч рублей</t>
-  </si>
-  <si>
-    <t>За
+    <t xml:space="preserve">Раздел 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основные средства и инвестиции в основной капитал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 2 Инвестиции в основной капитал по источникам финансирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За
 период
 с
 начала
@@ -281,168 +275,168 @@
 года</t>
   </si>
   <si>
-    <t>За
+    <t xml:space="preserve">За
 соответствующий
 период
 прошлого
 года</t>
   </si>
   <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>Из строки 222: - работы по монтажу оборудования</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>охрана окружающей среды</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>мелиорация земель</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>уплаченные банку проценты по кредитам (займам)</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>из нее для районов индивидуальной жилой застройки</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>инженерная и транспортная инфраструктура для районов жилой застройки</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>из них модернизация</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>реконструкция, модернизация</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>Из строки 202: возведение</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>прочие работы и затраты</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>из них приобретенные на территории Республики Беларусь</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>из них импортные</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>машины, оборудование, транспортные средства, инструмент, инвентарь</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>Из строки 202: строительно-монтажные работы</t>
-  </si>
-  <si>
-    <t>Таблица 3 Технологическая и воспроизводственная структура инвестиций в основной капитал</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>Вложения в нематериальные активы</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>Сумма налога на добавленную стоимость за использованные объемы инвестиций в
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 222: - работы по монтажу оборудования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">охрана окружающей среды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мелиорация земель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">уплаченные банку проценты по кредитам (займам)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из нее для районов индивидуальной жилой застройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инженерная и транспортная инфраструктура для районов жилой застройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них модернизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">реконструкция, модернизация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 202: возведение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">прочие работы и затраты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них приобретенные на территории Республики Беларусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них импортные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">машины, оборудование, транспортные средства, инструмент, инвентарь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 202: строительно-монтажные работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 3 Технологическая и воспроизводственная структура инвестиций в основной капитал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вложения в нематериальные активы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сумма налога на добавленную стоимость за использованные объемы инвестиций в
 основной капитал</t>
   </si>
   <si>
-    <t>Всего,
+    <t xml:space="preserve">Всего,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>Таблица 4 Справочная информация</t>
-  </si>
-  <si>
-    <t>41200</t>
-  </si>
-  <si>
-    <t>Общее строительство зданий</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>в том числе по видам экономической деятельности:</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Всего</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Инвестиции в
+    <t xml:space="preserve">Таблица 4 Справочная информация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее строительство зданий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе по видам экономической деятельности:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвестиции в
 основной капитал 
 (из строки 202
 таблицы 2)</t>
   </si>
   <si>
-    <t>Наименование вида экономической деятельности по ОКРБ 005-2011</t>
-  </si>
-  <si>
-    <t>Таблица 5 Ввод в эксплуатацию основных средств и технологическая структура инвестиций в основной капитал по видам экономической деятельности</t>
-  </si>
-  <si>
-    <t>Введено
+    <t xml:space="preserve">Наименование вида экономической деятельности по ОКРБ 005-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 5 Ввод в эксплуатацию основных средств и технологическая структура инвестиций в основной капитал по видам экономической деятельности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено
 в
 эксплуатацию
 основных
 средств</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 период
 с
 начала
@@ -450,14 +444,14 @@
 года</t>
   </si>
   <si>
-    <t>за
+    <t xml:space="preserve">за
 соответствующий
 период
 прошлого
 года</t>
   </si>
   <si>
-    <t>Строительно-монтажные
+    <t xml:space="preserve">Строительно-монтажные
 работы
 (из
 строки
@@ -468,7 +462,7 @@
 3)</t>
   </si>
   <si>
-    <t>Машины,
+    <t xml:space="preserve">Машины,
 оборудование,
 транспортные
 средства,
@@ -483,7 +477,7 @@
 3)</t>
   </si>
   <si>
-    <t>Из
+    <t xml:space="preserve">Из
 них
 работы
 по
@@ -498,101 +492,101 @@
 3)</t>
   </si>
   <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>из них льготных кредитов</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>517</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>из них субсидий</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>Из строки 502 - за счет: собственных средств организаций</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>жилые дома с использованием электрической энергии для целей отопления, горячего
+    <t xml:space="preserve">522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них льготных кредитов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них субсидий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 502 - за счет: собственных средств организаций</t>
+  </si>
+  <si>
+    <t xml:space="preserve">508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">жилые дома с использованием электрической энергии для целей отопления, горячего
 водоснабжения и приготовления пищи</t>
   </si>
   <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>многоквартирные энергоэффективные жилые дома</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>многоквартирные жилые дома</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>в результате реконструкции</t>
-  </si>
-  <si>
-    <t>503</t>
-  </si>
-  <si>
-    <t>из них: общежития</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>Жилые дома и общежития - всего (сумма строк с 510 по 512, с 517 по 519, 521,
+    <t xml:space="preserve">507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">многоквартирные энергоэффективные жилые дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">многоквартирные жилые дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в результате реконструкции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: общежития</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома и общежития - всего (сумма строк с 510 по 512, с 517 по 519, 521,
 522)</t>
   </si>
   <si>
-    <t>в
+    <t xml:space="preserve">в
 малых
 городских
 поселениях,
 квадратных метров</t>
   </si>
   <si>
-    <t>в
+    <t xml:space="preserve">в
 сельских
 населенных
 пунктах,
 квадратных метров</t>
   </si>
   <si>
-    <t>Использовано
+    <t xml:space="preserve">Использовано
 инвестиций
 в
 фактических
@@ -601,10 +595,10 @@
 рублей</t>
   </si>
   <si>
-    <t>Из них</t>
-  </si>
-  <si>
-    <t>Введено
+    <t xml:space="preserve">Из них</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено
 в
 эксплуатацию
 общей
@@ -613,41 +607,41 @@
 метров</t>
   </si>
   <si>
-    <t>Раздел 3</t>
-  </si>
-  <si>
-    <t>Строительство объектов жилищно-гражданского назначения</t>
-  </si>
-  <si>
-    <t>Таблица 6 Строительство жилых домов и общежитий по источникам финансирования</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>в жилых домах с использованием электрической энергии для целей отопления,
+    <t xml:space="preserve">Раздел 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство объектов жилищно-гражданского назначения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 6 Строительство жилых домов и общежитий по источникам финансирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в жилых домах с использованием электрической энергии для целей отопления,
 горячего водоснабжения и приготовления пищи</t>
   </si>
   <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>из них: в результате реконструкции</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>Количество введенных в эксплуатацию квартир</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>Количество введенных в эксплуатацию жилых домов</t>
-  </si>
-  <si>
-    <t>Из
+    <t xml:space="preserve">525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них: в результате реконструкции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество введенных в эксплуатацию квартир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество введенных в эксплуатацию жилых домов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из
 них
 в
 сельских
@@ -655,342 +649,342 @@
 пунктах</t>
   </si>
   <si>
-    <t>Таблица 7 Ввод в эксплуатацию жилых домов, квартир</t>
-  </si>
-  <si>
-    <t>единиц</t>
-  </si>
-  <si>
-    <t>530</t>
-  </si>
-  <si>
-    <t>из них с использованием государственной поддержки</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>Количество квартир - всего</t>
-  </si>
-  <si>
-    <t>квадратных
+    <t xml:space="preserve">Таблица 7 Ввод в эксплуатацию жилых домов, квартир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">единиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них с использованием государственной поддержки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество квартир - всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">квадратных
 метров</t>
   </si>
   <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>из нее с использованием государственной поддержки</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>Общая площадь жилых домов (квартир) - всего</t>
-  </si>
-  <si>
-    <t>в
+    <t xml:space="preserve">528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из нее с использованием государственной поддержки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая площадь жилых домов (квартир) - всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в
 малых
 городских
 поселениях</t>
   </si>
   <si>
-    <t>в
+    <t xml:space="preserve">в
 сельских
 населенных пунктах</t>
   </si>
   <si>
-    <t>Таблица 8 Ввод в эксплуатацию жилых домов (квартир) для граждан, состоящих на учете нуждающихся в улучшении жилищных условий</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>Учреждения культуры клубного типа, количество</t>
-  </si>
-  <si>
-    <t>мест</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>Учреждения культуры клубного типа</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>Учреждения дошкольного образования, количество</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>Учреждения дошкольного образования</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>Учреждения общего среднего образования, количество</t>
-  </si>
-  <si>
-    <t>ученических
+    <t xml:space="preserve">Таблица 8 Ввод в эксплуатацию жилых домов (квартир) для граждан, состоящих на учете нуждающихся в улучшении жилищных условий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения культуры клубного типа, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения культуры клубного типа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения дошкольного образования, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения дошкольного образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения общего среднего образования, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ученических
 мест</t>
   </si>
   <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>Учреждения общего среднего образования</t>
-  </si>
-  <si>
-    <t>квадратных
+    <t xml:space="preserve">901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения общего среднего образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">квадратных
 метров
 учебно-лабораторных зданий</t>
   </si>
   <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>Учреждения среднего специального образования</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>Учреждения высшего образования</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>Физкультурно-оздоровительные комплексы</t>
-  </si>
-  <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>Плоскостные спортивные сооружения</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>Плавательные бассейны</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>Спортивные залы</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>Стадионы</t>
-  </si>
-  <si>
-    <t>коек</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>Санатории</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>Амбулаторно-поликлинические организации, количество</t>
-  </si>
-  <si>
-    <t>посещений
+    <t xml:space="preserve">685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения среднего специального образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учреждения высшего образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физкультурно-оздоровительные комплексы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плоскостные спортивные сооружения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плавательные бассейны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спортивные залы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стадионы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санатории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амбулаторно-поликлинические организации, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">посещений
 в смену</t>
   </si>
   <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>Амбулаторно-поликлинические организации</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>Больничные организации, количество</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>Больничные организации</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>Гостиницы, количество</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>Гостиницы</t>
-  </si>
-  <si>
-    <t>км</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>Протяженность сетей объектов теплоснабжения</t>
-  </si>
-  <si>
-    <t>гигакалорий
+    <t xml:space="preserve">572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Амбулаторно-поликлинические организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Больничные организации, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Больничные организации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гостиницы, количество</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гостиницы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">км</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протяженность сетей объектов теплоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гигакалорий
 в
 час</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Производительность объектов теплоснабжения</t>
-  </si>
-  <si>
-    <t>545</t>
-  </si>
-  <si>
-    <t>Протяженность сетей объектов газификации</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>Протяженность коллекторов и сетей объектов канализации</t>
-  </si>
-  <si>
-    <t>тысяч
+    <t xml:space="preserve">549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производительность объектов теплоснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протяженность сетей объектов газификации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протяженность коллекторов и сетей объектов канализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч
 кубических метров</t>
   </si>
   <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>Пропускная способность объектов канализации</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>Протяженность водоводов и сетей объектов водопровода</t>
-  </si>
-  <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>Пропускная способность объектов водопровода</t>
-  </si>
-  <si>
-    <t>Таблица 9 Строительство объектов социально-культурного назначения</t>
-  </si>
-  <si>
-    <t>тысяч
+    <t xml:space="preserve">538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропускная способность объектов канализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Протяженность водоводов и сетей объектов водопровода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пропускная способность объектов водопровода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица 9 Строительство объектов социально-культурного назначения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тысяч
 рублей</t>
   </si>
   <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>Фактическая стоимость введенных жилых домов (без общежитий, надстроек и
+    <t xml:space="preserve">1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактическая стоимость введенных жилых домов (без общежитий, надстроек и
 пристроек)</t>
   </si>
   <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>Из строки 502 таблицы 6 - введено в эксплуатацию общей площади жилых домов (без
+    <t xml:space="preserve">1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 502 таблицы 6 - введено в эксплуатацию общей площади жилых домов (без
 общежитий, надстроек и пристроек)</t>
   </si>
   <si>
-    <t>Таблица 10 Сведения о стоимости строительства жилых домов</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>Жилые помещения по государственному заказу</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>Арендное жилье государственного, частного жилищных фондов</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>Жилые помещения для отселения граждан, проживающих в ветхих и аварийных жилых
+    <t xml:space="preserve">Таблица 10 Сведения о стоимости строительства жилых домов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые помещения по государственному заказу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Арендное жилье государственного, частного жилищных фондов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые помещения для отселения граждан, проживающих в ветхих и аварийных жилых
 домах</t>
   </si>
   <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>Жилые дома (квартиры) для многодетных семей</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>Жилые помещения социального пользования</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>кредитов
+    <t xml:space="preserve">1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома (квартиры) для многодетных семей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые помещения социального пользования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кредитов
 (займов)
 банков,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 местных
 бюджетов,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>квартир,
+    <t xml:space="preserve">квартир,
 единиц</t>
   </si>
   <si>
-    <t>Их них за счет</t>
-  </si>
-  <si>
-    <t>Использовано
+    <t xml:space="preserve">Их них за счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использовано
 инвестиций
 в
 основной
@@ -1002,34 +996,34 @@
 рублей</t>
   </si>
   <si>
-    <t>Введено в
+    <t xml:space="preserve">Введено в
 эксплуатацию</t>
   </si>
   <si>
-    <t>Таблица 11 Сведения о некоторых показателях жилищного строительства</t>
-  </si>
-  <si>
-    <t>общей
+    <t xml:space="preserve">Таблица 11 Сведения о некоторых показателях жилищного строительства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">общей
 площади,
 квадратных
 метров</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 республиканского
 бюджета,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 них
 субсидий,
 тысяч
 рублей</t>
   </si>
   <si>
-    <t>из
+    <t xml:space="preserve">из
 них
 льготных
 кредитов,
@@ -1037,106 +1031,106 @@
 рублей</t>
   </si>
   <si>
-    <t>средств
+    <t xml:space="preserve">средств
 населения, тысяч
 рублей</t>
   </si>
   <si>
-    <t>прочих
+    <t xml:space="preserve">прочих
 источников, тысяч
 рублей</t>
   </si>
   <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>из нее многоквартирных жилых домов</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>Общая площадь жилых домов и общежитий</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>из них многоквартирных жилых домов</t>
-  </si>
-  <si>
-    <t>1031</t>
-  </si>
-  <si>
-    <t>из них жилых домов и общежитий</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>Количество объектов</t>
-  </si>
-  <si>
-    <t>приостановленных,
+    <t xml:space="preserve">1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из нее многоквартирных жилых домов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая площадь жилых домов и общежитий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них многоквартирных жилых домов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">из них жилых домов и общежитий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество объектов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">приостановленных,
 законсервированных</t>
   </si>
   <si>
-    <t>с
+    <t xml:space="preserve">с
 превышением
 нормативной
 продолжительности
 строительства</t>
   </si>
   <si>
-    <t>Раздел 4</t>
-  </si>
-  <si>
-    <t>Незавершенное строительство</t>
+    <t xml:space="preserve">Раздел 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Незавершенное строительство</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 12  </t>
   </si>
   <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>в том числе на территории города-спутника:</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>Из строки 1035 - для граждан, состоящих на учете нуждающихся в улучшении
+    <t xml:space="preserve">1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе на территории города-спутника:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из строки 1035 - для граждан, состоящих на учете нуждающихся в улучшении
 жилищных условий</t>
   </si>
   <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>1035</t>
-  </si>
-  <si>
-    <t>Жилые дома всего</t>
-  </si>
-  <si>
-    <t>Из них за счет</t>
-  </si>
-  <si>
-    <t>Введено в
+    <t xml:space="preserve">1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилые дома всего</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Из них за счет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введено в
 эксплуатацию жилых
 домов</t>
   </si>
   <si>
-    <t>Раздел 5</t>
-  </si>
-  <si>
-    <t>Сведения о строительстве объектов в городах-спутниках</t>
+    <t xml:space="preserve">Раздел 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сведения о строительстве объектов в городах-спутниках</t>
   </si>
   <si>
     <t xml:space="preserve">Таблица 13  </t>
   </si>
   <si>
-    <t>Использовано
+    <t xml:space="preserve">Использовано
 инвестиций
 на
 строительство
@@ -1149,7 +1143,7 @@
 рублей</t>
   </si>
   <si>
-    <t>Использовано
+    <t xml:space="preserve">Использовано
 инвестиций
 на
 строительство
@@ -1165,37 +1159,38 @@
 рублей</t>
   </si>
   <si>
-    <t>Лицо, ответственное за составление и представление
+    <t xml:space="preserve">Лицо, ответственное за составление и представление
 первичных статистических данных</t>
   </si>
   <si>
-    <t>(должность)</t>
-  </si>
-  <si>
-    <t>(подпись)</t>
-  </si>
-  <si>
-    <t>(инициалы, фамилия)</t>
-  </si>
-  <si>
-    <t>Бернацкая Инна Николаевна zamsu123@mail.ru 261143</t>
-  </si>
-  <si>
-    <t>(фамилия, собственное имя, отчество контактного
+    <t xml:space="preserve">(должность)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(подпись)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(инициалы, фамилия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бернацкая Инна Николаевна zamsu123@mail.ru 261143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(фамилия, собственное имя, отчество контактного
 лица, номер телефона, адрес электронной почты)</t>
   </si>
   <si>
-    <t>(дата составления государственной
+    <t xml:space="preserve">(дата составления государственной
 статистической отчетности)</t>
   </si>
   <si>
-    <t>Отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
+    <t xml:space="preserve">Отчет о вводе в эксплуатацию объектов, основных средств и использовании инвестиций в основной капитал  за</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1817,11 +1812,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2123,8 +2118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
@@ -2456,8 +2451,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="E35" sqref="D9:E35"/>
@@ -2899,8 +2894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="D9:E12"/>
@@ -3043,8 +3038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C14" sqref="C10:L14"/>
@@ -3322,8 +3317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="D10:F14"/>
@@ -3515,8 +3510,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H26" sqref="B20:J26"/>
@@ -3843,8 +3838,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="D10:F10"/>
@@ -3980,8 +3975,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D22" sqref="C9:D22"/>
@@ -4200,8 +4195,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E22" sqref="D9:E22"/>
@@ -4474,8 +4469,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C9:C10"/>
@@ -4563,8 +4558,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="C10:H12"/>
@@ -4756,8 +4751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:F26"/>
@@ -5082,8 +5077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="C9:D12"/>
@@ -5202,8 +5197,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="D10:F13"/>
